--- a/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/06_Log.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/06_Log.M1.Scaled.Coef.xlsx
@@ -422,17 +422,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.66 (0.54, 0.80)</t>
+          <t>0.83 (0.73, 0.96)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.87 (0.82, 0.93)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.88 (0.83, 0.93)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.84 (0.77, 0.91)</t>
+          <t>0.87 (0.81, 0.93)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.56 (0.45, 0.69)</t>
+          <t>0.65 (0.54, 0.78)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.86 (0.82, 0.91)</t>
+          <t>0.86 (0.82, 0.90)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.84 (0.80, 0.89)</t>
+          <t>0.85 (0.80, 0.89)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.82 (0.76, 0.88)</t>
+          <t>0.82 (0.77, 0.88)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.29 (0.16, 0.49)</t>
+          <t>0.29 (0.16, 0.47)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.95)</t>
+          <t>0.92 (0.89, 0.95)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.71 (0.62, 0.79)</t>
+          <t>0.72 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.71 (0.60, 0.82)</t>
+          <t>0.70 (0.60, 0.81)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -588,22 +588,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.37 (0.21, 0.61)</t>
+          <t>0.57 (0.36, 0.83)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.74 (0.65, 0.83)</t>
+          <t>0.76 (0.68, 0.85)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.90 (0.86, 0.93)</t>
+          <t>0.90 (0.87, 0.94)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.75 (0.66, 0.84)</t>
+          <t>0.78 (0.70, 0.86)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.67 (0.55, 0.79)</t>
+          <t>0.70 (0.60, 0.82)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.78 (0.62, 0.96)</t>
+          <t>0.72 (0.58, 0.88)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.97)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.97 (0.94, 0.99)</t>
+          <t>0.96 (0.94, 0.98)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.92 (0.86, 0.98)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.90 (0.83, 0.98)</t>
+          <t>0.87 (0.81, 0.94)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
